--- a/Jogos_do_Dia/2022-12-31_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-31_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="G9" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="I9" t="n">
         <v>1.03</v>
@@ -1423,10 +1423,10 @@
         <v>4.2</v>
       </c>
       <c r="M9" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="N9" t="n">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="O9" t="n">
         <v>1.34</v>
@@ -1474,7 +1474,7 @@
         <v>2.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AE9" t="n">
         <v>1.24</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="H10" t="n">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="I10" t="n">
         <v>1.07</v>
@@ -1536,7 +1536,7 @@
         <v>2.1</v>
       </c>
       <c r="N10" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -1575,28 +1575,28 @@
         <v>3.62</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG10" t="n">
         <v>1.93</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="11">
@@ -1685,28 +1685,28 @@
         <v>2.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="12">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="H12" t="n">
-        <v>12</v>
+        <v>9.65</v>
       </c>
       <c r="I12" t="n">
         <v>1.02</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="G13" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="H13" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="I13" t="n">
         <v>1.03</v>
@@ -1863,10 +1863,10 @@
         <v>3.3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="N13" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O13" t="n">
         <v>1.44</v>
@@ -1905,28 +1905,28 @@
         <v>2.89</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="G15" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H15" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="I15" t="n">
         <v>1.04</v>
@@ -2083,10 +2083,10 @@
         <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="N15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O15" t="n">
         <v>1.33</v>
@@ -2178,7 +2178,7 @@
         <v>3.75</v>
       </c>
       <c r="H16" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I16" t="n">
         <v>1.03</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="H17" t="n">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="I17" t="n">
         <v>1.07</v>
@@ -2303,10 +2303,10 @@
         <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>2.02</v>
+        <v>2.11</v>
       </c>
       <c r="N17" t="n">
-        <v>1.79</v>
+        <v>1.62</v>
       </c>
       <c r="O17" t="n">
         <v>1.44</v>
@@ -2345,28 +2345,28 @@
         <v>2.41</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="18">
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
         <v>1.05</v>
@@ -2413,10 +2413,10 @@
         <v>4.2</v>
       </c>
       <c r="M18" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="N18" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="O18" t="n">
         <v>1.33</v>
@@ -2455,28 +2455,28 @@
         <v>2.97</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="19">
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="G19" t="n">
-        <v>8.5</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>18</v>
+        <v>17.2</v>
       </c>
       <c r="I19" t="n">
         <v>1.01</v>
@@ -2565,28 +2565,28 @@
         <v>3.48</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="20">
@@ -2675,28 +2675,28 @@
         <v>3.64</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="21">
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H21" t="n">
-        <v>4.5</v>
+        <v>4.15</v>
       </c>
       <c r="I21" t="n">
         <v>1.08</v>
@@ -2743,10 +2743,10 @@
         <v>2.9</v>
       </c>
       <c r="M21" t="n">
-        <v>2.23</v>
+        <v>2.12</v>
       </c>
       <c r="N21" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O21" t="n">
         <v>1.5</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I22" t="n">
         <v>1.06</v>
@@ -2853,10 +2853,10 @@
         <v>3.4</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="N22" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="G23" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="I23" t="n">
         <v>1.05</v>
@@ -2963,10 +2963,10 @@
         <v>4.03</v>
       </c>
       <c r="M23" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="N23" t="n">
-        <v>2.1</v>
+        <v>1.86</v>
       </c>
       <c r="O23" t="n">
         <v>1.36</v>
@@ -3005,28 +3005,28 @@
         <v>3.51</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2022-12-31_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-31_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>3.18</v>
       </c>
       <c r="H9" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="I9" t="n">
         <v>1.03</v>
@@ -1423,10 +1423,10 @@
         <v>4.2</v>
       </c>
       <c r="M9" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="N9" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="O9" t="n">
         <v>1.34</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="G10" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="H10" t="n">
-        <v>2.75</v>
+        <v>2.94</v>
       </c>
       <c r="I10" t="n">
         <v>1.07</v>
@@ -1533,7 +1533,7 @@
         <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="N10" t="n">
         <v>1.65</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="G12" t="n">
-        <v>6.2</v>
+        <v>6.48</v>
       </c>
       <c r="H12" t="n">
-        <v>9.65</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="I12" t="n">
         <v>1.02</v>
@@ -1753,10 +1753,10 @@
         <v>6.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="N12" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="O12" t="n">
         <v>1.22</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="G13" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="H13" t="n">
-        <v>4.75</v>
+        <v>4.93</v>
       </c>
       <c r="I13" t="n">
         <v>1.03</v>
@@ -1863,10 +1863,10 @@
         <v>3.3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="N13" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="O13" t="n">
         <v>1.44</v>
@@ -1952,52 +1952,52 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>11.04</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
         <v>0.13</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.2</v>
+        <v>4.64</v>
       </c>
       <c r="G15" t="n">
-        <v>3.9</v>
+        <v>3.71</v>
       </c>
       <c r="H15" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="I15" t="n">
         <v>1.04</v>
@@ -2086,7 +2086,7 @@
         <v>1.65</v>
       </c>
       <c r="N15" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O15" t="n">
         <v>1.33</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="G16" t="n">
         <v>3.75</v>
       </c>
       <c r="H16" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="I16" t="n">
         <v>1.03</v>
@@ -2193,10 +2193,10 @@
         <v>4.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="N16" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O16" t="n">
         <v>1.25</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.05</v>
+        <v>3.19</v>
       </c>
       <c r="G17" t="n">
-        <v>3.05</v>
+        <v>3.24</v>
       </c>
       <c r="H17" t="n">
-        <v>2.29</v>
+        <v>2.24</v>
       </c>
       <c r="I17" t="n">
         <v>1.07</v>
@@ -2303,10 +2303,10 @@
         <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="N17" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="O17" t="n">
         <v>1.44</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="G18" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
         <v>1.05</v>
@@ -2413,10 +2413,10 @@
         <v>4.2</v>
       </c>
       <c r="M18" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="N18" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="O18" t="n">
         <v>1.33</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="G19" t="n">
-        <v>8.050000000000001</v>
+        <v>8.51</v>
       </c>
       <c r="H19" t="n">
-        <v>17.2</v>
+        <v>17.02</v>
       </c>
       <c r="I19" t="n">
         <v>1.01</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>3.36</v>
       </c>
       <c r="H21" t="n">
-        <v>4.15</v>
+        <v>4.45</v>
       </c>
       <c r="I21" t="n">
         <v>1.08</v>
@@ -2743,10 +2743,10 @@
         <v>2.9</v>
       </c>
       <c r="M21" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="N21" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="O21" t="n">
         <v>1.5</v>
@@ -2835,10 +2835,10 @@
         <v>1.9</v>
       </c>
       <c r="G22" t="n">
-        <v>3.25</v>
+        <v>3.41</v>
       </c>
       <c r="H22" t="n">
-        <v>3.95</v>
+        <v>4.01</v>
       </c>
       <c r="I22" t="n">
         <v>1.06</v>
@@ -2853,10 +2853,10 @@
         <v>3.4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="N22" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.65</v>
+        <v>3.67</v>
       </c>
       <c r="G23" t="n">
-        <v>3.5</v>
+        <v>3.49</v>
       </c>
       <c r="H23" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="I23" t="n">
         <v>1.05</v>
@@ -2963,10 +2963,10 @@
         <v>4.03</v>
       </c>
       <c r="M23" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="N23" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="O23" t="n">
         <v>1.36</v>
